--- a/output/fit_clients/fit_round_490.xlsx
+++ b/output/fit_clients/fit_round_490.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1864999379.757455</v>
+        <v>2348944208.056878</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09449626907387246</v>
+        <v>0.071155121698654</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02832810234629266</v>
+        <v>0.04126012358858638</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>932499667.3719963</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2381130515.229565</v>
+        <v>2207986600.459577</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1752531499910336</v>
+        <v>0.16340768968057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03172139531648221</v>
+        <v>0.04821273038783377</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1190565356.715285</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5142179958.630654</v>
+        <v>3683564105.509244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1182782532249118</v>
+        <v>0.1572755243085472</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03291989252630175</v>
+        <v>0.02821402863193703</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>177</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2571090074.426604</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2736269534.111529</v>
+        <v>3014282485.184423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1011739883362807</v>
+        <v>0.09445914237626889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04394208355647337</v>
+        <v>0.04580657275312736</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>181</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1368134854.410404</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2139767617.780518</v>
+        <v>2205962892.781829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09307929084218879</v>
+        <v>0.1280289606645385</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05128623816577715</v>
+        <v>0.05666459036515845</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1069883823.38123</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3066476172.56555</v>
+        <v>2773026147.964798</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09238949607728907</v>
+        <v>0.09025656041151346</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0413291625565809</v>
+        <v>0.02991056469491079</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>153</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1533238044.808841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3496936539.317507</v>
+        <v>2870631925.467817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2029108054076501</v>
+        <v>0.2144635079573642</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03256674434060877</v>
+        <v>0.02955284474500545</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>156</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1748468377.997761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2290667625.255323</v>
+        <v>1675063040.784074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1601104838917806</v>
+        <v>0.1605466442324144</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02885355245439179</v>
+        <v>0.02935874868874899</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1145333798.936105</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5553343257.058889</v>
+        <v>4435443935.902151</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1537045190471002</v>
+        <v>0.1602039785681119</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04254399749149665</v>
+        <v>0.03491039984726318</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>206</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2776671770.71201</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3841062381.217278</v>
+        <v>2913567431.114236</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1710293054536835</v>
+        <v>0.1289207109899993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04178766405338785</v>
+        <v>0.04846261312427201</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>202</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1920531192.192022</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3295304325.032254</v>
+        <v>3289134482.91335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.195407100773486</v>
+        <v>0.197789674883992</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0498750700062429</v>
+        <v>0.04469489508952515</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>166</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1647652207.596251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3375299943.917982</v>
+        <v>3585825747.987875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07393700129403924</v>
+        <v>0.07064360068867093</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02649746595087348</v>
+        <v>0.02451429866678876</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>164</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1687650058.638234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2557541138.413968</v>
+        <v>2700296035.269363</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1224890482469826</v>
+        <v>0.1851735649861941</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03488052179676289</v>
+        <v>0.03398909186258274</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>156</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1278770635.709436</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1644264622.881441</v>
+        <v>1318770751.448504</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07682222326633578</v>
+        <v>0.09855891065725163</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03612097049151707</v>
+        <v>0.04908028033461283</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>822132429.6754314</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2253595098.131452</v>
+        <v>1798286733.795659</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07759634650153287</v>
+        <v>0.1064788324548576</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0467552147082691</v>
+        <v>0.05180160161535383</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1126797601.915449</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4374107679.609544</v>
+        <v>4153464891.808569</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1666580142695818</v>
+        <v>0.1078321637997959</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04563594486264844</v>
+        <v>0.04240569252936254</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>144</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2187053855.927186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3591035283.168486</v>
+        <v>3421479267.006064</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1612602328501961</v>
+        <v>0.1619822358664824</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03418707497335218</v>
+        <v>0.02540414273490567</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>160</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1795517629.031471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1178854709.83348</v>
+        <v>1011078125.925092</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1522188348177144</v>
+        <v>0.1551572304685254</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02207012728270214</v>
+        <v>0.02225441769298937</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>589427427.7488205</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2560808280.728559</v>
+        <v>1786791593.644013</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1257767318232612</v>
+        <v>0.154375064583284</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03101390804376052</v>
+        <v>0.02858236363207141</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1280404106.983613</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2304622464.486636</v>
+        <v>2307511772.225676</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08302746311758918</v>
+        <v>0.09615720300093038</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04002101386119443</v>
+        <v>0.03111321848011101</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1152311239.090101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2888684510.671845</v>
+        <v>2791013576.866268</v>
       </c>
       <c r="F22" t="n">
-        <v>0.110925370602723</v>
+        <v>0.08802898547402591</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05537054279619164</v>
+        <v>0.05632494679380182</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1444342323.55533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1416574203.918826</v>
+        <v>1534844301.362747</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1291191116765073</v>
+        <v>0.1651455870149423</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04408067160518132</v>
+        <v>0.04198871956640989</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>708287101.9687257</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2823286629.527883</v>
+        <v>3144097204.941241</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09609237797125331</v>
+        <v>0.1305224536281935</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03605514008126495</v>
+        <v>0.03024961485980213</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1411643361.898122</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1308784058.242406</v>
+        <v>1334956195.173098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1146220185081725</v>
+        <v>0.07479333468341125</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01913080523880469</v>
+        <v>0.02454544647891772</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>654392022.0877683</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>984570028.5837113</v>
+        <v>1015346756.082815</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07654399112194521</v>
+        <v>0.0807582878633369</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02671230378163907</v>
+        <v>0.02700741469819614</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>492284982.5935161</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3200847138.82619</v>
+        <v>3125296933.856276</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1293381212534661</v>
+        <v>0.1466516023727214</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02310541506613827</v>
+        <v>0.01638419611405828</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1600423619.281218</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3697378143.143559</v>
+        <v>2405958559.219209</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09730970574810281</v>
+        <v>0.108589976358652</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03188300643674102</v>
+        <v>0.03932448830577033</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>157</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1848689143.339481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5001717289.411734</v>
+        <v>5844553067.727275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1171372491494821</v>
+        <v>0.1384099207601543</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03640661515346456</v>
+        <v>0.03147813745072611</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>216</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2500858592.222321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2207727648.90287</v>
+        <v>1517186221.707537</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08655549463222043</v>
+        <v>0.1218498839122961</v>
       </c>
       <c r="G30" t="n">
-        <v>0.032841351444961</v>
+        <v>0.02455544155731735</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1103863885.577609</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1183175323.042299</v>
+        <v>1474251728.947786</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1114518580910397</v>
+        <v>0.09689941830402668</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0422212333944891</v>
+        <v>0.04236454571870505</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>591587616.9601965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1393678438.319787</v>
+        <v>1288104528.158262</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08225188888245134</v>
+        <v>0.09276503383671374</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03263627205737729</v>
+        <v>0.03127565227694904</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>696839265.5231885</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3026722391.19858</v>
+        <v>1991133068.454412</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1259329191028871</v>
+        <v>0.1969012324620935</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05957917007246567</v>
+        <v>0.03954709202308239</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1513361188.977536</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>963166939.7224461</v>
+        <v>1048378620.276509</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08626867584727098</v>
+        <v>0.07438270154352655</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02071220170211292</v>
+        <v>0.02431446941010072</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>481583513.7579643</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1217298606.172073</v>
+        <v>840187016.4541745</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1178462185225374</v>
+        <v>0.07638418099807744</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0349250892395269</v>
+        <v>0.03549836287154909</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>608649274.0354986</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2987603603.227767</v>
+        <v>2080170705.986282</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1639857329399213</v>
+        <v>0.1208793432477441</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02878911955697269</v>
+        <v>0.01987644262277783</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1493801784.545104</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1852642811.077923</v>
+        <v>2095555698.287909</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09895949188612044</v>
+        <v>0.09069253438683683</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03569754036631591</v>
+        <v>0.04002948580401349</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>926321412.580405</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1715311930.425834</v>
+        <v>1928326925.561913</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09183226109598452</v>
+        <v>0.09080588882514716</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0259494429375947</v>
+        <v>0.03972807464811091</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>857655984.0846771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2149729286.795488</v>
+        <v>1383028256.389305</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1218494610091867</v>
+        <v>0.1251587989903739</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02386577056336208</v>
+        <v>0.03269922767963763</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1074864615.263345</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1169542581.068531</v>
+        <v>1362526177.388488</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1507826423838098</v>
+        <v>0.1544034502907764</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04280407799198973</v>
+        <v>0.05122212278910618</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>584771339.4715251</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2453177809.400712</v>
+        <v>2063125012.930904</v>
       </c>
       <c r="F41" t="n">
-        <v>0.11035940742779</v>
+        <v>0.1452188400134018</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03667499817340612</v>
+        <v>0.03968663540233298</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1226588934.632333</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2889773448.850432</v>
+        <v>3002835332.921754</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026044236601669</v>
+        <v>0.118901265150429</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03239036298133786</v>
+        <v>0.03606824900560008</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>162</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1444886677.288695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2024562581.725821</v>
+        <v>2851418578.941462</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1628993972887215</v>
+        <v>0.1451198683342105</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02463792430802483</v>
+        <v>0.01949317175420929</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>169</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1012281387.364784</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1744502009.796149</v>
+        <v>1496825474.048958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08830067400441977</v>
+        <v>0.1013353548369817</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02723201094004838</v>
+        <v>0.0366371201612346</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>872251060.2702355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1583443025.306412</v>
+        <v>2089606140.215217</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1730179127071999</v>
+        <v>0.1236365287238589</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03440336979997304</v>
+        <v>0.05353209445437377</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>791721461.5334544</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3450606330.866207</v>
+        <v>5636802736.63804</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1130524782103168</v>
+        <v>0.1431287435224815</v>
       </c>
       <c r="G46" t="n">
-        <v>0.043972611635939</v>
+        <v>0.05959416587329727</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>174</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1725303103.517636</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4221842417.73821</v>
+        <v>3297144682.085686</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1351418493969153</v>
+        <v>0.1503034577172398</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05111956327777815</v>
+        <v>0.04739833728175044</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2110921220.601838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2850269802.553659</v>
+        <v>4478988113.23361</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06674567083298422</v>
+        <v>0.1063642601932952</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03231244708349413</v>
+        <v>0.02396447145651129</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1425135002.493768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1862312543.424695</v>
+        <v>1565533244.842103</v>
       </c>
       <c r="F49" t="n">
-        <v>0.135427884754897</v>
+        <v>0.1439318279428927</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02696826035566594</v>
+        <v>0.03949136705812993</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>931156247.4313598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2838004614.971419</v>
+        <v>3629173876.064564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1496425603843482</v>
+        <v>0.152192765237249</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0434213579835313</v>
+        <v>0.05247871784408773</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>167</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1419002378.883095</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138317673.506595</v>
+        <v>1120955357.691098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1302466209092392</v>
+        <v>0.1841940302377097</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03609622918094258</v>
+        <v>0.03586592674866963</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>569158898.3168925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3705944136.243353</v>
+        <v>4751814474.668175</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08978607337956034</v>
+        <v>0.1182322363141353</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05136699956472018</v>
+        <v>0.03746867645763331</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>202</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1852972141.925079</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2792995727.402171</v>
+        <v>3656891967.109964</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1504718719420436</v>
+        <v>0.2044047794464757</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02367154795023051</v>
+        <v>0.02901398765088792</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1396497910.416759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4072221278.344948</v>
+        <v>4594286755.382663</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1380929578681885</v>
+        <v>0.1175881768526485</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04835040726179085</v>
+        <v>0.04105213167776726</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2036110708.937987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3463873059.252653</v>
+        <v>3096771143.143122</v>
       </c>
       <c r="F55" t="n">
-        <v>0.167842707502928</v>
+        <v>0.213457552906361</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02844560875968122</v>
+        <v>0.02344496493331709</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1731936480.876661</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1163672340.599197</v>
+        <v>1326297972.413252</v>
       </c>
       <c r="F56" t="n">
-        <v>0.145216379606636</v>
+        <v>0.1273253055964353</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04031025948619606</v>
+        <v>0.03765190397923658</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>581836262.4297571</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3636842395.967748</v>
+        <v>4213298142.918498</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1410157560557915</v>
+        <v>0.1562589174897956</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01701911202515713</v>
+        <v>0.02098207163974812</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>156</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1818421255.881554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1525543052.360687</v>
+        <v>1896598607.150326</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1649975107275257</v>
+        <v>0.1787512069232536</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03079524118613578</v>
+        <v>0.02549203762890569</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>762771555.0090305</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4625065592.817818</v>
+        <v>5181692337.763911</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09373453621539275</v>
+        <v>0.09039594382839392</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04982610282762699</v>
+        <v>0.03263517392308297</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2312532742.21393</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3588400989.129192</v>
+        <v>3724427665.056822</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1772673815470341</v>
+        <v>0.1515538069044435</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0209823166623727</v>
+        <v>0.02336678873237928</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1794200626.658286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3280562254.177497</v>
+        <v>2386671990.629741</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1202139194487402</v>
+        <v>0.1563089480770084</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02111866569150152</v>
+        <v>0.02471838103511758</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>168</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1640281081.120315</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1443445131.361763</v>
+        <v>1562949326.246159</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1895191307431027</v>
+        <v>0.1364628238766924</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04305643820930866</v>
+        <v>0.04877268106903886</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>721722540.2989868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4057433150.022483</v>
+        <v>3647906408.564924</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09405325839702404</v>
+        <v>0.07338643671452079</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03534337757842179</v>
+        <v>0.03623255450327972</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2028716634.834583</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4205709660.646151</v>
+        <v>3855468008.224417</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547391756833727</v>
+        <v>0.1722567043389062</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03298515949033272</v>
+        <v>0.03199239172286738</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>153</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2102854880.665285</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3885415271.504076</v>
+        <v>4444469728.470931</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1155031152212667</v>
+        <v>0.1051016943281015</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02933068162339631</v>
+        <v>0.02035416708146025</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>175</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1942707661.200724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4721364291.547011</v>
+        <v>5137574290.598063</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1314306441107784</v>
+        <v>0.1496701746429278</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03971709708861572</v>
+        <v>0.03745926675098415</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>144</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2360682158.066699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3030118275.395752</v>
+        <v>2140755726.360424</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1031634142915978</v>
+        <v>0.09722774678994808</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03860362596437671</v>
+        <v>0.04467741812003158</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>157</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1515059153.453918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5095192390.682894</v>
+        <v>4271964172.277629</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09823032552319645</v>
+        <v>0.1378872172706724</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04731968654148733</v>
+        <v>0.05111581673471546</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2547596257.537779</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2225866272.250093</v>
+        <v>2288306026.960016</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1650367282082127</v>
+        <v>0.1418590351571707</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04681327712152412</v>
+        <v>0.03867522422084943</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1112933170.334766</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2357081173.53545</v>
+        <v>2634350968.670888</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07356033969986378</v>
+        <v>0.0638628805016548</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03151355617222049</v>
+        <v>0.03166428560180708</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1178540521.918481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3810532709.647905</v>
+        <v>5337497238.940272</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1853666888577951</v>
+        <v>0.1770320134336538</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02237365057698875</v>
+        <v>0.02248893547930481</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>178</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1905266371.787106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1994460223.492168</v>
+        <v>1959273614.194906</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06551857006488282</v>
+        <v>0.07680679077002502</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0406980786342505</v>
+        <v>0.04678784888692321</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>997230059.0160165</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3251629576.680474</v>
+        <v>3037410143.734885</v>
       </c>
       <c r="F73" t="n">
-        <v>0.100987945231339</v>
+        <v>0.08734833352624161</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03214112268387828</v>
+        <v>0.03294207966774316</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>185</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1625814761.279295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3506928438.576085</v>
+        <v>3792211574.353443</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1517101641412877</v>
+        <v>0.1259341865606962</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02280323879226571</v>
+        <v>0.03331017304358996</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>166</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1753464240.849141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2320030690.798433</v>
+        <v>1572634673.662634</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1668881747879228</v>
+        <v>0.1036496425537304</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02750575855525537</v>
+        <v>0.02613399503643416</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1160015279.671364</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4621662093.561131</v>
+        <v>3343103835.183465</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1092787819300406</v>
+        <v>0.1111766499552075</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02657155549596886</v>
+        <v>0.0333077044991252</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2310831057.562515</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2259949269.404994</v>
+        <v>1785963732.770549</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1197075983356916</v>
+        <v>0.1224910675837326</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02100985831500631</v>
+        <v>0.0309683590857186</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1129974734.61925</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3300975720.774674</v>
+        <v>3353120314.738598</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09418410502044886</v>
+        <v>0.1278035978027847</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05072139898173064</v>
+        <v>0.04469305565858108</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>170</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1650487876.151035</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1742204003.956599</v>
+        <v>1508182500.606179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1168337819556038</v>
+        <v>0.106582419710342</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02497215903936654</v>
+        <v>0.03456063250697065</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>871102078.571772</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3894379524.581145</v>
+        <v>3971555327.610799</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08304893599725165</v>
+        <v>0.1088644403822928</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03349306406292013</v>
+        <v>0.0239238054444796</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1947189756.545707</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4133443183.81488</v>
+        <v>4922111309.896663</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1246225164795661</v>
+        <v>0.1039478440518206</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0252073268232353</v>
+        <v>0.02716529861164479</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2066721560.081858</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5327092135.421686</v>
+        <v>4487836297.600365</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1552301831870374</v>
+        <v>0.1566933027101436</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02771882924015557</v>
+        <v>0.02815510305158684</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2663546033.438525</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1520053469.485712</v>
+        <v>1900741096.14062</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1148968529352458</v>
+        <v>0.1229908939242092</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02934269492482671</v>
+        <v>0.03556670048399278</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>760026660.3427713</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2114170844.847265</v>
+        <v>2491889199.721057</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09758034936196038</v>
+        <v>0.1003139279566149</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05172876000944265</v>
+        <v>0.03168303826500598</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1057085410.705653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2427480418.984951</v>
+        <v>3164023988.999088</v>
       </c>
       <c r="F85" t="n">
-        <v>0.146456729270257</v>
+        <v>0.1283232189905593</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03632035015179095</v>
+        <v>0.04013912613177365</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>183</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1213740206.440516</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2073622822.67157</v>
+        <v>1846863474.738833</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1226773779858684</v>
+        <v>0.1540850978248345</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01810646793727317</v>
+        <v>0.0187121008756827</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1036811449.222533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1446438148.481606</v>
+        <v>1454798584.944733</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1705719584160777</v>
+        <v>0.152226673544221</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0352651005161897</v>
+        <v>0.04219171052727506</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>723219193.0248184</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2786664479.146717</v>
+        <v>2281055114.959373</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1616536032384464</v>
+        <v>0.1436154339790214</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02578550096695546</v>
+        <v>0.0377517430152447</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>195</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1393332248.970614</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2879038302.187962</v>
+        <v>3166251719.608167</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1022382851044104</v>
+        <v>0.1304604204744579</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02544097535448857</v>
+        <v>0.03026462043934966</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>166</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1439519198.086633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1768619537.143042</v>
+        <v>2055154802.853087</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1228595103354763</v>
+        <v>0.1118042233510489</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0400952762035453</v>
+        <v>0.04239097757000523</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>884309796.4624547</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1485856631.13305</v>
+        <v>1742574887.835072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1206145440052836</v>
+        <v>0.1216758393900379</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0587177594691872</v>
+        <v>0.03750005901565052</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>742928356.374494</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2254992101.86761</v>
+        <v>2323732454.485929</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0772263186692656</v>
+        <v>0.109643579774253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04379147216133407</v>
+        <v>0.03429254411051536</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>133</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1127496016.406817</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3807617844.478448</v>
+        <v>3489492284.984247</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08788409634048285</v>
+        <v>0.1380645494334844</v>
       </c>
       <c r="G93" t="n">
-        <v>0.040910118822773</v>
+        <v>0.05110743336709186</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1903808935.327552</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2437736917.767875</v>
+        <v>2331902303.944149</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1019519585940981</v>
+        <v>0.1300422486013397</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03239675236143116</v>
+        <v>0.04108396747143162</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1218868514.240513</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2851063055.902483</v>
+        <v>1992632263.466944</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1262389947273621</v>
+        <v>0.1018061097831194</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04152815427821387</v>
+        <v>0.04863622536850623</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1425531538.525602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1642351412.013693</v>
+        <v>1847096090.062289</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08722566879254044</v>
+        <v>0.1281834181512602</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02962719628970133</v>
+        <v>0.03473313358606323</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>821175731.2053431</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4308480968.484201</v>
+        <v>5068710648.888736</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1294725812769635</v>
+        <v>0.1130356546203004</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02441350661391082</v>
+        <v>0.0245517169516862</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2154240565.453529</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3779380644.437804</v>
+        <v>3699392145.319602</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07939339374713761</v>
+        <v>0.08601964815943632</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03191465352519008</v>
+        <v>0.02206888723389516</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>135</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1889690359.779872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3193520160.94331</v>
+        <v>2979406340.042128</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1455045363179049</v>
+        <v>0.1105150481643374</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0328716894089874</v>
+        <v>0.03278711828345506</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1596760080.516327</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4114836898.611931</v>
+        <v>3093412834.086156</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1263182837559529</v>
+        <v>0.1332073286537986</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02008488395973989</v>
+        <v>0.02188555552796224</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2057418529.175941</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3187457532.561636</v>
+        <v>2228775502.934764</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1393021414908473</v>
+        <v>0.1859979665087839</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05002077079913785</v>
+        <v>0.04617407989375737</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>199</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1593728880.177374</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_490.xlsx
+++ b/output/fit_clients/fit_round_490.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2348944208.056878</v>
+        <v>2282201622.741351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.071155121698654</v>
+        <v>0.08785078559954988</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04126012358858638</v>
+        <v>0.04078991111758574</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2207986600.459577</v>
+        <v>2246698567.884721</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16340768968057</v>
+        <v>0.151691288846329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04821273038783377</v>
+        <v>0.04594963465381627</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3683564105.509244</v>
+        <v>3539040085.696165</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1572755243085472</v>
+        <v>0.146597816683112</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02821402863193703</v>
+        <v>0.02738769645856213</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3014282485.184423</v>
+        <v>3827362011.041446</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09445914237626889</v>
+        <v>0.0694464497814353</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04580657275312736</v>
+        <v>0.04103225126330159</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2205962892.781829</v>
+        <v>1926589921.124484</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1280289606645385</v>
+        <v>0.09020240907298181</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05666459036515845</v>
+        <v>0.03635523230799753</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2773026147.964798</v>
+        <v>2103579350.256271</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09025656041151346</v>
+        <v>0.08556854873981357</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02991056469491079</v>
+        <v>0.03876482908498754</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2870631925.467817</v>
+        <v>3983209311.708025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2144635079573642</v>
+        <v>0.1655905739704855</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02955284474500545</v>
+        <v>0.0323597410193526</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1675063040.784074</v>
+        <v>1552174797.826032</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1605466442324144</v>
+        <v>0.1847629672661009</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02935874868874899</v>
+        <v>0.02326333141604343</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4435443935.902151</v>
+        <v>4988577828.78399</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1602039785681119</v>
+        <v>0.1595272137233533</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03491039984726318</v>
+        <v>0.04968970589711161</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2913567431.114236</v>
+        <v>4001918569.759679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1289207109899993</v>
+        <v>0.1749564169486331</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04846261312427201</v>
+        <v>0.04194171353422664</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3289134482.91335</v>
+        <v>2464245738.452746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.197789674883992</v>
+        <v>0.1501715526505716</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04469489508952515</v>
+        <v>0.05104697242605256</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3585825747.987875</v>
+        <v>4577259478.556744</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07064360068867093</v>
+        <v>0.06146180664469193</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02451429866678876</v>
+        <v>0.02590634738214833</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2700296035.269363</v>
+        <v>3530172537.274226</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1851735649861941</v>
+        <v>0.1297031875722753</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03398909186258274</v>
+        <v>0.03650074175733763</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1318770751.448504</v>
+        <v>1697095826.056354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09855891065725163</v>
+        <v>0.0901074962851821</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04908028033461283</v>
+        <v>0.03519604718567173</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1798286733.795659</v>
+        <v>1986821996.162234</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1064788324548576</v>
+        <v>0.09513671224743023</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05180160161535383</v>
+        <v>0.04927485406243466</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4153464891.808569</v>
+        <v>4626907992.216055</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1078321637997959</v>
+        <v>0.155342972284219</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04240569252936254</v>
+        <v>0.04481557141885434</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3421479267.006064</v>
+        <v>3670686563.77105</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1619822358664824</v>
+        <v>0.1550621051488419</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02540414273490567</v>
+        <v>0.02789548108963939</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1011078125.925092</v>
+        <v>1224501169.020605</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1551572304685254</v>
+        <v>0.1874314259360217</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02225441769298937</v>
+        <v>0.02533629349716177</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1786791593.644013</v>
+        <v>2643919377.607963</v>
       </c>
       <c r="F20" t="n">
-        <v>0.154375064583284</v>
+        <v>0.1044191966396405</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02858236363207141</v>
+        <v>0.02734231568187801</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2307511772.225676</v>
+        <v>2692742318.216671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09615720300093038</v>
+        <v>0.08898820555511205</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03111321848011101</v>
+        <v>0.03694389341724844</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2791013576.866268</v>
+        <v>2655810862.039585</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08802898547402591</v>
+        <v>0.09149164909916198</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05632494679380182</v>
+        <v>0.05100852297505316</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1534844301.362747</v>
+        <v>1171101024.517617</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1651455870149423</v>
+        <v>0.1437136783251142</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04198871956640989</v>
+        <v>0.03347256089985086</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3144097204.941241</v>
+        <v>3999871601.495124</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1305224536281935</v>
+        <v>0.1426842808805474</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03024961485980213</v>
+        <v>0.03484815965816608</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1334956195.173098</v>
+        <v>1456644786.076851</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07479333468341125</v>
+        <v>0.1073244092984196</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02454544647891772</v>
+        <v>0.01979623791150976</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1015346756.082815</v>
+        <v>1381899672.702329</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0807582878633369</v>
+        <v>0.09859839249474295</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02700741469819614</v>
+        <v>0.02744565772485464</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3125296933.856276</v>
+        <v>3728146113.515562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1466516023727214</v>
+        <v>0.1477014263322435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01638419611405828</v>
+        <v>0.02592921492047893</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2405958559.219209</v>
+        <v>2524852953.198699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.108589976358652</v>
+        <v>0.1509223128712101</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03932448830577033</v>
+        <v>0.04203518332974715</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5844553067.727275</v>
+        <v>5154047943.881443</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1384099207601543</v>
+        <v>0.09223161431171788</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03147813745072611</v>
+        <v>0.03192428522789885</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1517186221.707537</v>
+        <v>1564859953.012927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1218498839122961</v>
+        <v>0.08636533221443375</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02455544155731735</v>
+        <v>0.0401858393244797</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1474251728.947786</v>
+        <v>931622077.813113</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09689941830402668</v>
+        <v>0.08425687132435174</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04236454571870505</v>
+        <v>0.03800234504926107</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1288104528.158262</v>
+        <v>1306279325.93757</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09276503383671374</v>
+        <v>0.08493979660425215</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03127565227694904</v>
+        <v>0.02634093508191595</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1991133068.454412</v>
+        <v>2390589360.836634</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1969012324620935</v>
+        <v>0.1534497359463079</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03954709202308239</v>
+        <v>0.03701350993626415</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1048378620.276509</v>
+        <v>1292051568.547547</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07438270154352655</v>
+        <v>0.09461588243279995</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02431446941010072</v>
+        <v>0.01791977738375727</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>840187016.4541745</v>
+        <v>1135823005.840162</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07638418099807744</v>
+        <v>0.09323889580914686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03549836287154909</v>
+        <v>0.03316752316201572</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2080170705.986282</v>
+        <v>2293877973.613133</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1208793432477441</v>
+        <v>0.1356558576573385</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01987644262277783</v>
+        <v>0.02355335754104092</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2095555698.287909</v>
+        <v>2770165193.777891</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09069253438683683</v>
+        <v>0.08873850265543198</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04002948580401349</v>
+        <v>0.0412110816706094</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1928326925.561913</v>
+        <v>2056414653.777271</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09080588882514716</v>
+        <v>0.1156724276855231</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03972807464811091</v>
+        <v>0.03585438221976547</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1383028256.389305</v>
+        <v>1551843232.784797</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1251587989903739</v>
+        <v>0.1195763845567989</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03269922767963763</v>
+        <v>0.02541995159912606</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1362526177.388488</v>
+        <v>1398917844.95531</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1544034502907764</v>
+        <v>0.1510759331092207</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05122212278910618</v>
+        <v>0.05970654921362649</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2063125012.930904</v>
+        <v>2007027061.833211</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1452188400134018</v>
+        <v>0.1550831919246479</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03968663540233298</v>
+        <v>0.04617424623921629</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3002835332.921754</v>
+        <v>3327896778.983251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.118901265150429</v>
+        <v>0.1223954010703812</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03606824900560008</v>
+        <v>0.03893156121389347</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2851418578.941462</v>
+        <v>2833808600.89126</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1451198683342105</v>
+        <v>0.1309247498431258</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01949317175420929</v>
+        <v>0.02190205867885353</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1496825474.048958</v>
+        <v>2278572241.482457</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1013353548369817</v>
+        <v>0.06370715010844559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0366371201612346</v>
+        <v>0.02696331103159224</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2089606140.215217</v>
+        <v>1725404876.551741</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1236365287238589</v>
+        <v>0.1638915104575118</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05353209445437377</v>
+        <v>0.03723834454179365</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5636802736.63804</v>
+        <v>4930792697.205912</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1431287435224815</v>
+        <v>0.1735688061846243</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05959416587329727</v>
+        <v>0.04927130318084827</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3297144682.085686</v>
+        <v>3320812577.820397</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1503034577172398</v>
+        <v>0.131528326805283</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04739833728175044</v>
+        <v>0.05391886854717659</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4478988113.23361</v>
+        <v>4159276294.405252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1063642601932952</v>
+        <v>0.09248800581816979</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02396447145651129</v>
+        <v>0.0323132162584541</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1565533244.842103</v>
+        <v>1498264013.343948</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1439318279428927</v>
+        <v>0.1923690432112931</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03949136705812993</v>
+        <v>0.03752515847674599</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3629173876.064564</v>
+        <v>2900436691.53994</v>
       </c>
       <c r="F50" t="n">
-        <v>0.152192765237249</v>
+        <v>0.1570322408498999</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05247871784408773</v>
+        <v>0.04618153982828482</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1120955357.691098</v>
+        <v>929768135.473081</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1841940302377097</v>
+        <v>0.1514897822861509</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03586592674866963</v>
+        <v>0.05227983888104501</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4751814474.668175</v>
+        <v>4774359672.625731</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1182322363141353</v>
+        <v>0.09006979047118518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03746867645763331</v>
+        <v>0.03729384747019326</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3656891967.109964</v>
+        <v>3336622110.520959</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2044047794464757</v>
+        <v>0.1494050811090448</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02901398765088792</v>
+        <v>0.02828622121825287</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4594286755.382663</v>
+        <v>4165453703.772168</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1175881768526485</v>
+        <v>0.1341343685417319</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04105213167776726</v>
+        <v>0.04994808797170446</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3096771143.143122</v>
+        <v>3085510687.217808</v>
       </c>
       <c r="F55" t="n">
-        <v>0.213457552906361</v>
+        <v>0.1797559887075348</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02344496493331709</v>
+        <v>0.02517224967500753</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1326297972.413252</v>
+        <v>1253869742.883534</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1273253055964353</v>
+        <v>0.1341561941821956</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03765190397923658</v>
+        <v>0.0516790218920319</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4213298142.918498</v>
+        <v>3220851050.903529</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1562589174897956</v>
+        <v>0.134378130381478</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02098207163974812</v>
+        <v>0.02237351380364114</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1896598607.150326</v>
+        <v>1254006207.984361</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1787512069232536</v>
+        <v>0.1480013922410611</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02549203762890569</v>
+        <v>0.02564062722344155</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5181692337.763911</v>
+        <v>3403466005.243945</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09039594382839392</v>
+        <v>0.1110188356163304</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03263517392308297</v>
+        <v>0.04033779606339452</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3724427665.056822</v>
+        <v>2567202660.465564</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1515538069044435</v>
+        <v>0.166430108783221</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02336678873237928</v>
+        <v>0.02529767232033886</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2386671990.629741</v>
+        <v>2260755597.236417</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1563089480770084</v>
+        <v>0.1416038665206625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02471838103511758</v>
+        <v>0.0289163610023922</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1562949326.246159</v>
+        <v>1978852996.602793</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1364628238766924</v>
+        <v>0.159149597108929</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04877268106903886</v>
+        <v>0.03215627981114634</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3647906408.564924</v>
+        <v>5419513635.217662</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07338643671452079</v>
+        <v>0.1005005076231407</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03623255450327972</v>
+        <v>0.03742624303938082</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3855468008.224417</v>
+        <v>3638792354.530873</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1722567043389062</v>
+        <v>0.1195001754647274</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03199239172286738</v>
+        <v>0.03337557183211106</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4444469728.470931</v>
+        <v>4336709861.540418</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1051016943281015</v>
+        <v>0.122109203559437</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02035416708146025</v>
+        <v>0.02529213549915935</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5137574290.598063</v>
+        <v>4801629163.903605</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1496701746429278</v>
+        <v>0.1142566616079154</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03745926675098415</v>
+        <v>0.03559275419041939</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2140755726.360424</v>
+        <v>3291623558.686991</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09722774678994808</v>
+        <v>0.07231041394570045</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04467741812003158</v>
+        <v>0.04318495002250318</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4271964172.277629</v>
+        <v>5861311721.874069</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1378872172706724</v>
+        <v>0.1557258367683194</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05111581673471546</v>
+        <v>0.03784840069647633</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2288306026.960016</v>
+        <v>1610170798.893672</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1418590351571707</v>
+        <v>0.1382477792887938</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03867522422084943</v>
+        <v>0.03718258570378289</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2634350968.670888</v>
+        <v>3068119430.032324</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0638628805016548</v>
+        <v>0.08426215544171849</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03166428560180708</v>
+        <v>0.03549675368688404</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5337497238.940272</v>
+        <v>5435125790.779712</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1770320134336538</v>
+        <v>0.1833400853346072</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02248893547930481</v>
+        <v>0.03256650123875603</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1959273614.194906</v>
+        <v>1935076221.186011</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07680679077002502</v>
+        <v>0.08950687779950425</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04678784888692321</v>
+        <v>0.0323872237467976</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3037410143.734885</v>
+        <v>2474647545.128676</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08734833352624161</v>
+        <v>0.06877055682937021</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03294207966774316</v>
+        <v>0.03352271774224919</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3792211574.353443</v>
+        <v>3367667803.22439</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1259341865606962</v>
+        <v>0.1591751139168339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03331017304358996</v>
+        <v>0.02209388225376225</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1572634673.662634</v>
+        <v>1645506345.402459</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1036496425537304</v>
+        <v>0.1369395795746143</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02613399503643416</v>
+        <v>0.03641225593240597</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3343103835.183465</v>
+        <v>3343470692.640852</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1111766499552075</v>
+        <v>0.08850126533088173</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0333077044991252</v>
+        <v>0.02398760305436611</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1785963732.770549</v>
+        <v>1880164520.364337</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1224910675837326</v>
+        <v>0.1857401333570045</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0309683590857186</v>
+        <v>0.02126788386745906</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3353120314.738598</v>
+        <v>4687726441.143884</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1278035978027847</v>
+        <v>0.1228286824525234</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04469305565858108</v>
+        <v>0.04702089563056436</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1508182500.606179</v>
+        <v>1615546346.924191</v>
       </c>
       <c r="F79" t="n">
-        <v>0.106582419710342</v>
+        <v>0.1195686299674585</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03456063250697065</v>
+        <v>0.02580997118871172</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3971555327.610799</v>
+        <v>3945430341.475315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1088644403822928</v>
+        <v>0.07097228709447376</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0239238054444796</v>
+        <v>0.03832129399202781</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4922111309.896663</v>
+        <v>4135853096.722415</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1039478440518206</v>
+        <v>0.1157251247988501</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02716529861164479</v>
+        <v>0.02906933546047718</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4487836297.600365</v>
+        <v>5106720912.582561</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1566933027101436</v>
+        <v>0.1963802322266784</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02815510305158684</v>
+        <v>0.02293182512292198</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1900741096.14062</v>
+        <v>2296583866.630856</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1229908939242092</v>
+        <v>0.09645405090442055</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03556670048399278</v>
+        <v>0.04189959128928571</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2491889199.721057</v>
+        <v>2519084713.509797</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1003139279566149</v>
+        <v>0.1059582132095571</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03168303826500598</v>
+        <v>0.03362624415174928</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3164023988.999088</v>
+        <v>2983699145.469882</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1283232189905593</v>
+        <v>0.1353235975083137</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04013912613177365</v>
+        <v>0.04123665766703454</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1846863474.738833</v>
+        <v>2651943690.76193</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1540850978248345</v>
+        <v>0.1097789097971141</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0187121008756827</v>
+        <v>0.02701004711086465</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1454798584.944733</v>
+        <v>1219973955.992443</v>
       </c>
       <c r="F87" t="n">
-        <v>0.152226673544221</v>
+        <v>0.1573942358502076</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04219171052727506</v>
+        <v>0.0364755322759664</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2281055114.959373</v>
+        <v>3013245369.710178</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1436154339790214</v>
+        <v>0.1491005709898044</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0377517430152447</v>
+        <v>0.029938870937972</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3166251719.608167</v>
+        <v>2907498439.219539</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1304604204744579</v>
+        <v>0.14733828219881</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03026462043934966</v>
+        <v>0.02537969167676726</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2055154802.853087</v>
+        <v>1845283351.860747</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1118042233510489</v>
+        <v>0.1077763947823905</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04239097757000523</v>
+        <v>0.04147202982560914</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1742574887.835072</v>
+        <v>1364282071.138764</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1216758393900379</v>
+        <v>0.1579241564321105</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03750005901565052</v>
+        <v>0.05615777901614089</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2323732454.485929</v>
+        <v>2764510003.504648</v>
       </c>
       <c r="F92" t="n">
-        <v>0.109643579774253</v>
+        <v>0.07911970081745266</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03429254411051536</v>
+        <v>0.03964758620307438</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3489492284.984247</v>
+        <v>3564138767.814883</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1380645494334844</v>
+        <v>0.1150442613680349</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05110743336709186</v>
+        <v>0.04993690221840842</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2331902303.944149</v>
+        <v>2085116401.429946</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1300422486013397</v>
+        <v>0.1079493053753929</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04108396747143162</v>
+        <v>0.03075529244978089</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1992632263.466944</v>
+        <v>3091481673.749509</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1018061097831194</v>
+        <v>0.09568575792345752</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04863622536850623</v>
+        <v>0.04379007708746204</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1847096090.062289</v>
+        <v>1700604033.261363</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1281834181512602</v>
+        <v>0.1283958133397033</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03473313358606323</v>
+        <v>0.04221774517191047</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5068710648.888736</v>
+        <v>5029957010.570415</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1130356546203004</v>
+        <v>0.1531759193195046</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0245517169516862</v>
+        <v>0.02570585683911713</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3699392145.319602</v>
+        <v>3124470357.72593</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08601964815943632</v>
+        <v>0.1191073944004534</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02206888723389516</v>
+        <v>0.02859896124687012</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2979406340.042128</v>
+        <v>3021410715.7722</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1105150481643374</v>
+        <v>0.1205357429191734</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03278711828345506</v>
+        <v>0.02289781697046795</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3093412834.086156</v>
+        <v>4787599078.103068</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1332073286537986</v>
+        <v>0.1394288950471007</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02188555552796224</v>
+        <v>0.02130705621901322</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2228775502.934764</v>
+        <v>3151835567.814006</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1859979665087839</v>
+        <v>0.1588463854487214</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04617407989375737</v>
+        <v>0.05079297745978592</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_490.xlsx
+++ b/output/fit_clients/fit_round_490.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2282201622.741351</v>
+        <v>2443021402.707344</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08785078559954988</v>
+        <v>0.09037580307200054</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04078991111758574</v>
+        <v>0.0329860303689136</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2246698567.884721</v>
+        <v>2577062681.119201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.151691288846329</v>
+        <v>0.1474288792473228</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04594963465381627</v>
+        <v>0.05054650128194774</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3539040085.696165</v>
+        <v>4412979530.853732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146597816683112</v>
+        <v>0.1085225440608404</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02738769645856213</v>
+        <v>0.03332683536091696</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>247</v>
+      </c>
+      <c r="J4" t="n">
+        <v>489</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28.19372083992985</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3827362011.041446</v>
+        <v>3902063462.432292</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0694464497814353</v>
+        <v>0.07068138580059226</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04103225126330159</v>
+        <v>0.03375209477812362</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>490</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1926589921.124484</v>
+        <v>2400313721.343074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09020240907298181</v>
+        <v>0.1411268894296022</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03635523230799753</v>
+        <v>0.05338233753688792</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2103579350.256271</v>
+        <v>2236870027.206303</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08556854873981357</v>
+        <v>0.07302677219921733</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03876482908498754</v>
+        <v>0.04239762005840542</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3983209311.708025</v>
+        <v>3932598274.646057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1655905739704855</v>
+        <v>0.1507561415049984</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0323597410193526</v>
+        <v>0.03340017426768042</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J8" t="n">
+        <v>490</v>
+      </c>
+      <c r="K8" t="n">
+        <v>42.19201865637228</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1552174797.826032</v>
+        <v>2240802867.99538</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1847629672661009</v>
+        <v>0.1787544976601797</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02326333141604343</v>
+        <v>0.02690395127024039</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4988577828.78399</v>
+        <v>4179362238.719729</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1595272137233533</v>
+        <v>0.1644191863650797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04968970589711161</v>
+        <v>0.04763773745575427</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>370</v>
+      </c>
+      <c r="J10" t="n">
+        <v>490</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4001918569.759679</v>
+        <v>3309910636.561933</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1749564169486331</v>
+        <v>0.1684772021934676</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04194171353422664</v>
+        <v>0.0379258986602459</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>206</v>
+      </c>
+      <c r="J11" t="n">
+        <v>489</v>
+      </c>
+      <c r="K11" t="n">
+        <v>27.18550876197141</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2464245738.452746</v>
+        <v>2255879368.935124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1501715526505716</v>
+        <v>0.1589009983334602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05104697242605256</v>
+        <v>0.04698080186788173</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4577259478.556744</v>
+        <v>4044617756.31776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06146180664469193</v>
+        <v>0.09275073209550773</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02590634738214833</v>
+        <v>0.02823052884198771</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>253</v>
+      </c>
+      <c r="J13" t="n">
+        <v>490</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3530172537.274226</v>
+        <v>3373896111.479938</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1297031875722753</v>
+        <v>0.1834579511060266</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03650074175733763</v>
+        <v>0.02682259499842379</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>115</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36.41382345803573</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1697095826.056354</v>
+        <v>1342809453.825148</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0901074962851821</v>
+        <v>0.08819331718960056</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03519604718567173</v>
+        <v>0.04585457676463214</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1986821996.162234</v>
+        <v>2029148671.068311</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09513671224743023</v>
+        <v>0.08498583060761961</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04927485406243466</v>
+        <v>0.05189396642909327</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4626907992.216055</v>
+        <v>3395913243.208991</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155342972284219</v>
+        <v>0.1422918706883572</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04481557141885434</v>
+        <v>0.03961041943885148</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>239</v>
+      </c>
+      <c r="J17" t="n">
+        <v>489</v>
+      </c>
+      <c r="K17" t="n">
+        <v>23.17022294868659</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3670686563.77105</v>
+        <v>3233226228.457822</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1550621051488419</v>
+        <v>0.1289852166591621</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02789548108963939</v>
+        <v>0.02517587383495465</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>131</v>
+      </c>
+      <c r="J18" t="n">
+        <v>488</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1224501169.020605</v>
+        <v>1194900072.165708</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1874314259360217</v>
+        <v>0.1876183784680068</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02533629349716177</v>
+        <v>0.02628412643626287</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2643919377.607963</v>
+        <v>2508744577.009081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1044191966396405</v>
+        <v>0.1009812031212824</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02734231568187801</v>
+        <v>0.02818303027782541</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2692742318.216671</v>
+        <v>1867715922.493734</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08898820555511205</v>
+        <v>0.07928616932104629</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03694389341724844</v>
+        <v>0.04304712392251571</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2655810862.039585</v>
+        <v>3336273716.60059</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09149164909916198</v>
+        <v>0.1007527515245295</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05100852297505316</v>
+        <v>0.04085091150113476</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>143</v>
+      </c>
+      <c r="J22" t="n">
+        <v>486</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1171101024.517617</v>
+        <v>1194693053.044973</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1437136783251142</v>
+        <v>0.1244095946645441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03347256089985086</v>
+        <v>0.04678769659730387</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3999871601.495124</v>
+        <v>3076745425.405046</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426842808805474</v>
+        <v>0.1222523968922628</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03484815965816608</v>
+        <v>0.03343371331117537</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>155</v>
+      </c>
+      <c r="J24" t="n">
+        <v>489</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27.06790925132414</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1456644786.076851</v>
+        <v>1062812552.879367</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1073244092984196</v>
+        <v>0.1153861768662181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01979623791150976</v>
+        <v>0.02165558643263713</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1381899672.702329</v>
+        <v>1276041614.606902</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09859839249474295</v>
+        <v>0.08942293207165242</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02744565772485464</v>
+        <v>0.03183990278210769</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3728146113.515562</v>
+        <v>3211011788.807392</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1477014263322435</v>
+        <v>0.1455801018938099</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02592921492047893</v>
+        <v>0.0201145282186472</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>219</v>
+      </c>
+      <c r="J27" t="n">
+        <v>488</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2524852953.198699</v>
+        <v>3123409980.910076</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1509223128712101</v>
+        <v>0.1471069553374338</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04203518332974715</v>
+        <v>0.04257949068599753</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>121</v>
+      </c>
+      <c r="J28" t="n">
+        <v>488</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5154047943.881443</v>
+        <v>4692821919.02809</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09223161431171788</v>
+        <v>0.1449682434888762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03192428522789885</v>
+        <v>0.03064209743435053</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>386</v>
+      </c>
+      <c r="J29" t="n">
+        <v>489</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.09381066571515</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1564859953.012927</v>
+        <v>1774227694.483624</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08636533221443375</v>
+        <v>0.1196728095073598</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0401858393244797</v>
+        <v>0.0242233689446118</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>931622077.813113</v>
+        <v>1126916904.065182</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08425687132435174</v>
+        <v>0.07516452289327012</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03800234504926107</v>
+        <v>0.04607173872716012</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1306279325.93757</v>
+        <v>1554851339.722788</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08493979660425215</v>
+        <v>0.09090786913015809</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02634093508191595</v>
+        <v>0.03215702715091838</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2390589360.836634</v>
+        <v>2547826553.584404</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1534497359463079</v>
+        <v>0.1431669424323228</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03701350993626415</v>
+        <v>0.04894600753374843</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1292051568.547547</v>
+        <v>1493664688.695015</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09461588243279995</v>
+        <v>0.09074020140735663</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01791977738375727</v>
+        <v>0.0230996541165396</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1135823005.840162</v>
+        <v>1051354370.241652</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09323889580914686</v>
+        <v>0.1152890004867213</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03316752316201572</v>
+        <v>0.04458766479799935</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2293877973.613133</v>
+        <v>2583775601.344014</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1356558576573385</v>
+        <v>0.1425846345174236</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02355335754104092</v>
+        <v>0.021296240458161</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2770165193.777891</v>
+        <v>2404534176.501412</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08873850265543198</v>
+        <v>0.08619949715828717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0412110816706094</v>
+        <v>0.03593401380146027</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056414653.777271</v>
+        <v>1695337401.77246</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1156724276855231</v>
+        <v>0.1040768623754681</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03585438221976547</v>
+        <v>0.03762325194115365</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1551843232.784797</v>
+        <v>1487051448.128638</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1195763845567989</v>
+        <v>0.1421170938715732</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02541995159912606</v>
+        <v>0.0222835175131094</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1398917844.95531</v>
+        <v>1505710743.686255</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1510759331092207</v>
+        <v>0.1122979065468993</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05970654921362649</v>
+        <v>0.03870943590016981</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2007027061.833211</v>
+        <v>2642965181.302525</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1550831919246479</v>
+        <v>0.154084672602082</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04617424623921629</v>
+        <v>0.04697172266135076</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3327896778.983251</v>
+        <v>3112285382.098834</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1223954010703812</v>
+        <v>0.09551618159151942</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03893156121389347</v>
+        <v>0.04605254884163409</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2833808600.89126</v>
+        <v>2134542046.413828</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1309247498431258</v>
+        <v>0.1748043247891666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02190205867885353</v>
+        <v>0.02543522347836528</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2278572241.482457</v>
+        <v>1818439754.498829</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06370715010844559</v>
+        <v>0.06891791781044738</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02696331103159224</v>
+        <v>0.03243839231080246</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1725404876.551741</v>
+        <v>1847014665.637683</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1638915104575118</v>
+        <v>0.1608483792924158</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03723834454179365</v>
+        <v>0.05229364806057983</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4930792697.205912</v>
+        <v>5218658595.438015</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1735688061846243</v>
+        <v>0.1771262898849382</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04927130318084827</v>
+        <v>0.04465628098547558</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>288</v>
+      </c>
+      <c r="J46" t="n">
+        <v>489</v>
+      </c>
+      <c r="K46" t="n">
+        <v>27.39126715567474</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3320812577.820397</v>
+        <v>4507325641.399637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.131528326805283</v>
+        <v>0.2010846874375825</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05391886854717659</v>
+        <v>0.04630380181695402</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>223</v>
+      </c>
+      <c r="J47" t="n">
+        <v>489</v>
+      </c>
+      <c r="K47" t="n">
+        <v>28.98213408399822</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4159276294.405252</v>
+        <v>4597541622.297555</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09248800581816979</v>
+        <v>0.09995517256528028</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0323132162584541</v>
+        <v>0.0262523344708194</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>246</v>
+      </c>
+      <c r="J48" t="n">
+        <v>489</v>
+      </c>
+      <c r="K48" t="n">
+        <v>28.62451210900974</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1498264013.343948</v>
+        <v>1209046271.596524</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1923690432112931</v>
+        <v>0.1883859749822713</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03752515847674599</v>
+        <v>0.02961163973367743</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2900436691.53994</v>
+        <v>2748343576.678124</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1570322408498999</v>
+        <v>0.1107497284360933</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04618153982828482</v>
+        <v>0.04365350554907126</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>177</v>
+      </c>
+      <c r="J50" t="n">
+        <v>489</v>
+      </c>
+      <c r="K50" t="n">
+        <v>18.49954057369446</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>929768135.473081</v>
+        <v>1363923318.350724</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1514897822861509</v>
+        <v>0.1851967832853144</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05227983888104501</v>
+        <v>0.04465742680720595</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4774359672.625731</v>
+        <v>4061360864.824857</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09006979047118518</v>
+        <v>0.08560746126189216</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03729384747019326</v>
+        <v>0.03994108810179324</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>274</v>
+      </c>
+      <c r="J52" t="n">
+        <v>489</v>
+      </c>
+      <c r="K52" t="n">
+        <v>26.37564546715667</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3336622110.520959</v>
+        <v>3006246169.233256</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1494050811090448</v>
+        <v>0.1447426643273999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02828622121825287</v>
+        <v>0.02585633786484878</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>488</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4165453703.772168</v>
+        <v>3228101589.877942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1341343685417319</v>
+        <v>0.1261472406869661</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04994808797170446</v>
+        <v>0.04898547180444709</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>258</v>
+      </c>
+      <c r="J54" t="n">
+        <v>488</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3085510687.217808</v>
+        <v>3490025933.398259</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1797559887075348</v>
+        <v>0.1734305787376368</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02517224967500753</v>
+        <v>0.02723232553184019</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>241</v>
+      </c>
+      <c r="J55" t="n">
+        <v>490</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1253869742.883534</v>
+        <v>1628397718.628623</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1341561941821956</v>
+        <v>0.1559315178643045</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0516790218920319</v>
+        <v>0.05660495616146813</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3220851050.903529</v>
+        <v>4297497095.630176</v>
       </c>
       <c r="F57" t="n">
-        <v>0.134378130381478</v>
+        <v>0.1309532888488788</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02237351380364114</v>
+        <v>0.02710622308942452</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>211</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1254006207.984361</v>
+        <v>1702520014.693666</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1480013922410611</v>
+        <v>0.173743905948918</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02564062722344155</v>
+        <v>0.02411523627184018</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3403466005.243945</v>
+        <v>3698192829.149842</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1110188356163304</v>
+        <v>0.08508608194001835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04033779606339452</v>
+        <v>0.03971254817254038</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>240</v>
+      </c>
+      <c r="J59" t="n">
+        <v>490</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2567202660.465564</v>
+        <v>3154918712.126068</v>
       </c>
       <c r="F60" t="n">
-        <v>0.166430108783221</v>
+        <v>0.1666946864527153</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02529767232033886</v>
+        <v>0.03250669908989643</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>99</v>
+      </c>
+      <c r="J60" t="n">
+        <v>490</v>
+      </c>
+      <c r="K60" t="n">
+        <v>37.91477838170492</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2260755597.236417</v>
+        <v>2599965071.392246</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1416038665206625</v>
+        <v>0.1426232700382625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0289163610023922</v>
+        <v>0.02929944209818491</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1978852996.602793</v>
+        <v>1333276566.274161</v>
       </c>
       <c r="F62" t="n">
-        <v>0.159149597108929</v>
+        <v>0.1805623501913482</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03215627981114634</v>
+        <v>0.04029296228380438</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5419513635.217662</v>
+        <v>4601285983.977736</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1005005076231407</v>
+        <v>0.07659777185893825</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03742624303938082</v>
+        <v>0.03395344946838443</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>244</v>
+      </c>
+      <c r="J63" t="n">
+        <v>490</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3638792354.530873</v>
+        <v>3444179288.318477</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1195001754647274</v>
+        <v>0.1437471658982172</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03337557183211106</v>
+        <v>0.02253731599582143</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>244</v>
+      </c>
+      <c r="J64" t="n">
+        <v>489</v>
+      </c>
+      <c r="K64" t="n">
+        <v>25.14405036830097</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2734,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4336709861.540418</v>
+        <v>3912485681.12404</v>
       </c>
       <c r="F65" t="n">
-        <v>0.122109203559437</v>
+        <v>0.1088066910404734</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02529213549915935</v>
+        <v>0.02008944531744134</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>342</v>
+      </c>
+      <c r="J65" t="n">
+        <v>490</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4801629163.903605</v>
+        <v>3446431961.379149</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1142566616079154</v>
+        <v>0.1037647825499845</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03559275419041939</v>
+        <v>0.03257345980648425</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>243</v>
+      </c>
+      <c r="J66" t="n">
+        <v>489</v>
+      </c>
+      <c r="K66" t="n">
+        <v>23.77031273613217</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3291623558.686991</v>
+        <v>2873369185.714286</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07231041394570045</v>
+        <v>0.0775101250505872</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04318495002250318</v>
+        <v>0.04659092609728235</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5861311721.874069</v>
+        <v>5905804840.062405</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1557258367683194</v>
+        <v>0.1385221171692138</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03784840069647633</v>
+        <v>0.05117042755213303</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>266</v>
+      </c>
+      <c r="J68" t="n">
+        <v>489</v>
+      </c>
+      <c r="K68" t="n">
+        <v>25.49273928962208</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1610170798.893672</v>
+        <v>1968807451.685963</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1382477792887938</v>
+        <v>0.1392647194291539</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03718258570378289</v>
+        <v>0.04999050107197541</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2907,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3068119430.032324</v>
+        <v>2862537150.334585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08426215544171849</v>
+        <v>0.062747566252306</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03549675368688404</v>
+        <v>0.04899971116493745</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>75</v>
+      </c>
+      <c r="J70" t="n">
+        <v>489</v>
+      </c>
+      <c r="K70" t="n">
+        <v>28.06134321717769</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5435125790.779712</v>
+        <v>4125918692.215973</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1833400853346072</v>
+        <v>0.1269302699457346</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03256650123875603</v>
+        <v>0.02652108126650048</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>329</v>
+      </c>
+      <c r="J71" t="n">
+        <v>490</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1935076221.186011</v>
+        <v>1926626157.126121</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08950687779950425</v>
+        <v>0.09421455779129218</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0323872237467976</v>
+        <v>0.04422031322393202</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2474647545.128676</v>
+        <v>3567617228.037624</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06877055682937021</v>
+        <v>0.06939579366759434</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03352271774224919</v>
+        <v>0.042719187988515</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>490</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3367667803.22439</v>
+        <v>2983600056.439977</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1591751139168339</v>
+        <v>0.1131346920297867</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02209388225376225</v>
+        <v>0.02227267073781634</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1645506345.402459</v>
+        <v>2223599989.895559</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1369395795746143</v>
+        <v>0.1231660580012773</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03641225593240597</v>
+        <v>0.02407907048220854</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3343470692.640852</v>
+        <v>3653173684.095655</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08850126533088173</v>
+        <v>0.08883513653565571</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02398760305436611</v>
+        <v>0.02630865203385523</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>235</v>
+      </c>
+      <c r="J76" t="n">
+        <v>490</v>
+      </c>
+      <c r="K76" t="n">
+        <v>30.08776185251061</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1880164520.364337</v>
+        <v>1962933187.488491</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1857401333570045</v>
+        <v>0.1747817476412031</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02126788386745906</v>
+        <v>0.02886756094181477</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4687726441.143884</v>
+        <v>3327554396.835334</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1228286824525234</v>
+        <v>0.08959322162390561</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04702089563056436</v>
+        <v>0.05495276988727911</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>243</v>
+      </c>
+      <c r="J78" t="n">
+        <v>488</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1615546346.924191</v>
+        <v>1170390888.294448</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1195686299674585</v>
+        <v>0.1752293777312683</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02580997118871172</v>
+        <v>0.03301948728206375</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3945430341.475315</v>
+        <v>5260097621.207427</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07097228709447376</v>
+        <v>0.07668964774946863</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03832129399202781</v>
+        <v>0.0339181450253146</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>239</v>
+      </c>
+      <c r="J80" t="n">
+        <v>490</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4135853096.722415</v>
+        <v>3986853252.151112</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1157251247988501</v>
+        <v>0.09361068707322522</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02906933546047718</v>
+        <v>0.02005785024257131</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>229</v>
+      </c>
+      <c r="J81" t="n">
+        <v>490</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5106720912.582561</v>
+        <v>5490636085.116915</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1963802322266784</v>
+        <v>0.1478234172482948</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02293182512292198</v>
+        <v>0.02580214634850541</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>320</v>
+      </c>
+      <c r="J82" t="n">
+        <v>490</v>
+      </c>
+      <c r="K82" t="n">
+        <v>29.44441652305933</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2296583866.630856</v>
+        <v>1585054506.954865</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09645405090442055</v>
+        <v>0.1421328194848645</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04189959128928571</v>
+        <v>0.03286084811621393</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2519084713.509797</v>
+        <v>2529393294.799335</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1059582132095571</v>
+        <v>0.09789419489649571</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03362624415174928</v>
+        <v>0.04851137298344969</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2983699145.469882</v>
+        <v>2338900985.718315</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1353235975083137</v>
+        <v>0.1572112578919458</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04123665766703454</v>
+        <v>0.03804431900765247</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2651943690.76193</v>
+        <v>2808361764.978426</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1097789097971141</v>
+        <v>0.1298814539745419</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02701004711086465</v>
+        <v>0.02357442194293603</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1219973955.992443</v>
+        <v>1405228605.967959</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1573942358502076</v>
+        <v>0.132400202822998</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0364755322759664</v>
+        <v>0.04102024541339826</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3013245369.710178</v>
+        <v>2301001203.489765</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1491005709898044</v>
+        <v>0.1180806101353453</v>
       </c>
       <c r="G88" t="n">
-        <v>0.029938870937972</v>
+        <v>0.03478656986314688</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2907498439.219539</v>
+        <v>2815538461.056077</v>
       </c>
       <c r="F89" t="n">
-        <v>0.14733828219881</v>
+        <v>0.1594345903848534</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02537969167676726</v>
+        <v>0.02657657956670652</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>486</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1845283351.860747</v>
+        <v>1306678331.082553</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1077763947823905</v>
+        <v>0.1371604089456412</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04147202982560914</v>
+        <v>0.04044547130980762</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1364282071.138764</v>
+        <v>1393647815.646451</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1579241564321105</v>
+        <v>0.1678859385669754</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05615777901614089</v>
+        <v>0.0506548123636493</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2764510003.504648</v>
+        <v>2242301972.255965</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07911970081745266</v>
+        <v>0.09263851802128595</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03964758620307438</v>
+        <v>0.04442075312294864</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3564138767.814883</v>
+        <v>3807273396.265711</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1150442613680349</v>
+        <v>0.1323839572580018</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04993690221840842</v>
+        <v>0.04530567035814468</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>235</v>
+      </c>
+      <c r="J93" t="n">
+        <v>490</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2085116401.429946</v>
+        <v>1946539174.486605</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1079493053753929</v>
+        <v>0.1414408335884723</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03075529244978089</v>
+        <v>0.040692820034113</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3091481673.749509</v>
+        <v>3187825931.557702</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09568575792345752</v>
+        <v>0.1211296968450116</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04379007708746204</v>
+        <v>0.05139036451438626</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1700604033.261363</v>
+        <v>1958254428.994837</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1283958133397033</v>
+        <v>0.1057541077760327</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04221774517191047</v>
+        <v>0.04268745339981517</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5029957010.570415</v>
+        <v>3855639270.656011</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1531759193195046</v>
+        <v>0.1069445419897349</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02570585683911713</v>
+        <v>0.01968640190893042</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>255</v>
+      </c>
+      <c r="J97" t="n">
+        <v>489</v>
+      </c>
+      <c r="K97" t="n">
+        <v>28.56855077964837</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3124470357.72593</v>
+        <v>3831719880.166354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1191073944004534</v>
+        <v>0.09316392341087384</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02859896124687012</v>
+        <v>0.02104271351186987</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>490</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3021410715.7722</v>
+        <v>3049657958.873883</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1205357429191734</v>
+        <v>0.100139352738676</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02289781697046795</v>
+        <v>0.02720543451226848</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4787599078.103068</v>
+        <v>4168069018.994843</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1394288950471007</v>
+        <v>0.1319909670937531</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02130705621901322</v>
+        <v>0.017968883017391</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>228</v>
+      </c>
+      <c r="J100" t="n">
+        <v>490</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3151835567.814006</v>
+        <v>2517003709.104486</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1588463854487214</v>
+        <v>0.219875366581556</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05079297745978592</v>
+        <v>0.05206124217871871</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
